--- a/SkynetLearn/Excel/AbAssetCfg.xlsx
+++ b/SkynetLearn/Excel/AbAssetCfg.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8300F2DB-B1C9-4680-92BC-6354E9D33FC1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F789B91-9A77-43EA-B9FC-6722469FF281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>一、</t>
   </si>
@@ -292,22 +292,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>panelName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>abName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>uiName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>assetName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UI逻辑名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -361,6 +349,22 @@
   </si>
   <si>
     <t>AbAssetCfg.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1237,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1272,16 +1276,18 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="F2" s="8" t="s">
         <v>64</v>
       </c>
@@ -1331,7 +1337,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1345,86 +1351,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
